--- a/divisiondepedidos_distri.xlsx
+++ b/divisiondepedidos_distri.xlsx
@@ -209,13 +209,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -266,13 +266,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -390,13 +390,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -437,13 +437,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>362323</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590922</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -501,13 +501,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -558,13 +558,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -605,13 +605,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -749,13 +749,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -806,13 +806,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -853,13 +853,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>25527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -911,13 +911,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -958,13 +958,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>391430</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>90713</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1018,13 +1018,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>148318</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>376917</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1110,13 +1110,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>708932</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>72118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>308882</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>167368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1167,13 +1167,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>189593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>6351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1214,13 +1214,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>694872</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>172811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>161472</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>93564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1272,13 +1272,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>269387</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>183660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>278912</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>31259</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1319,13 +1319,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>428064</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>127347</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>156029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1379,13 +1379,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>122115</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>32674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>405059</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>4099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1523,13 +1523,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>684509</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>47696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>284459</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>142945</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1580,13 +1580,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>430090</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>140747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>525340</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>152889</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1627,13 +1627,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>548333</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>14060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>14933</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>130198</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1685,13 +1685,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>256442</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>265967</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1732,13 +1732,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>451827</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>183174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>151110</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>83040</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1792,13 +1792,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>183172</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>122115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>466116</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>93540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1873,13 +1873,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>660086</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>96543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>260036</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>191792</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1930,13 +1930,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>527782</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>18632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>623032</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>30774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1977,13 +1977,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>670448</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>1848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>137048</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>117986</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2035,13 +2035,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>549519</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>183174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>248803</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>83040</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2095,13 +2095,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>341924</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>122115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>351449</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>165099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2142,13 +2142,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>223715</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>116138</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2207,13 +2207,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>472835</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>482360</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2254,13 +2254,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>391430</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>90713</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2314,13 +2314,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>758405</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>59188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2378,13 +2378,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2435,13 +2435,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2482,13 +2482,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2544,13 +2544,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2601,13 +2601,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>106363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2650,13 +2650,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>549035</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>558560</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2697,13 +2697,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>759730</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>124278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>459013</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>29028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2757,13 +2757,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2815,13 +2815,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2872,13 +2872,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2919,13 +2919,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3015,13 +3015,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3072,13 +3072,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3119,13 +3119,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>104377</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>40283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>446484</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>8732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3212,13 +3212,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>524471</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>186929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>127397</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>88702</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3269,13 +3269,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>415727</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3316,13 +3316,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>580429</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>47029</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>54698</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3409,13 +3409,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3456,13 +3456,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>391430</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>90713</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3516,13 +3516,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>344685</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>114229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3609,13 +3609,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>539948</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>549473</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3656,13 +3656,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>197953</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>656260</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3716,13 +3716,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>344685</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>114229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3809,13 +3809,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93773</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>90544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>552080</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>185794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3869,13 +3869,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>565547</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3918,13 +3918,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3976,13 +3976,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4033,13 +4033,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4080,13 +4080,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4176,13 +4176,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4233,13 +4233,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4280,13 +4280,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>104377</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>40283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>446484</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>8732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4373,13 +4373,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>524471</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>186929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>127397</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>88702</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4430,13 +4430,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>415727</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4477,13 +4477,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>580429</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>133945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>47029</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>54698</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4570,13 +4570,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4617,13 +4617,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>391430</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>90713</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4677,13 +4677,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>344685</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4770,13 +4770,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>539948</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>549473</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4817,13 +4817,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>197953</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>656260</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4877,13 +4877,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>344685</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4970,13 +4970,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93773</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>90544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>552080</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>185794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5030,13 +5030,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>565547</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>591705</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>28864</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5077,13 +5077,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5135,13 +5135,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5192,13 +5192,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5239,13 +5239,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5335,13 +5335,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5392,13 +5392,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5439,13 +5439,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>104377</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>40283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>446484</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>8732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5532,13 +5532,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>524471</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>186929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>127397</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>88702</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5589,13 +5589,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>415727</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5636,13 +5636,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>580429</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>133945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>47029</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>54698</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5729,13 +5729,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5776,13 +5776,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>391430</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>90713</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5836,13 +5836,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>344685</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>114229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5929,13 +5929,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>539948</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>549473</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5976,13 +5976,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>197953</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>656260</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6036,13 +6036,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>344685</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>114229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6129,13 +6129,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93773</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>90544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>552080</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>185794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6189,13 +6189,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>565547</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>580430</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6236,13 +6236,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6294,13 +6294,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6351,13 +6351,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6398,13 +6398,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6494,13 +6494,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6551,13 +6551,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6598,13 +6598,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>104377</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>40283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>446484</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>8732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6691,13 +6691,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>524471</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>186929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>127397</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>88702</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6748,13 +6748,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>415727</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6795,13 +6795,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>580429</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>133945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>47029</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>54698</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6888,13 +6888,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6935,13 +6935,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>391430</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>90713</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6995,13 +6995,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>344685</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>114229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7088,13 +7088,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>539948</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>549473</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7135,13 +7135,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>197953</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>656260</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7195,13 +7195,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>344685</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>114229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7288,13 +7288,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93773</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>90544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>552080</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>185794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7348,13 +7348,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>565547</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>580430</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7395,13 +7395,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7453,13 +7453,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7510,13 +7510,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7557,13 +7557,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7653,13 +7653,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7710,13 +7710,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7757,13 +7757,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>104377</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>40283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>446484</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>8732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7850,13 +7850,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>524471</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>186929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>127397</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>88702</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7907,13 +7907,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>415727</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7954,13 +7954,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>580429</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>133945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>47029</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>54698</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8047,13 +8047,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8094,13 +8094,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>391430</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>90713</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8154,13 +8154,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>344685</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>114229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8247,13 +8247,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>539948</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>549473</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8294,13 +8294,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>197953</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>60778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>656260</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>156028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8354,13 +8354,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>344685</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>114229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8447,13 +8447,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8505,13 +8505,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8562,13 +8562,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8609,13 +8609,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>93773</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>90544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>552080</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>185794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8669,13 +8669,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>565547</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>580430</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8716,13 +8716,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>42139</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>158461</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8814,13 +8814,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>354445</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>182418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>716395</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>90055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8871,13 +8871,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>352137</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>71005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>115454</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>72159</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8918,13 +8918,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>209228</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>76112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>667535</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8978,13 +8978,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>147024</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>77572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>161907</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>18041</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9025,13 +9025,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>129887</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>346364</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9146,13 +9146,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>736022</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>57726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>196758</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>171956</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9248,13 +9248,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>245341</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>470964</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>13207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9350,13 +9350,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>391431</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>80622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>90713</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>175872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9410,13 +9410,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>456406</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9457,13 +9457,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9515,13 +9515,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9572,13 +9572,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9619,13 +9619,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>93773</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>90544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552080</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>185794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9679,13 +9679,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>565547</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>580430</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9726,13 +9726,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>42139</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>158461</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9800,13 +9800,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>354445</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>182418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>716395</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>90055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9857,13 +9857,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>352137</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>71005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>115454</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>72159</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9904,13 +9904,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>209228</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>76112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>667535</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>171363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9964,13 +9964,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>147024</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>77572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161907</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>18041</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10011,13 +10011,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>72161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>389659</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>115456</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10129,13 +10129,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>736022</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>57726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>196758</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>171956</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10231,13 +10231,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>245341</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>470964</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>13207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10333,13 +10333,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>625929</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>659423</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>73269</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10380,13 +10380,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>465018</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10493,7 +10493,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>616323</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>112057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10534,13 +10534,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10592,13 +10592,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10649,13 +10649,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10696,13 +10696,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>93773</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>90544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552080</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>185794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10756,13 +10756,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>565547</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10803,13 +10803,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10877,13 +10877,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10934,13 +10934,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10981,13 +10981,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11041,13 +11041,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11088,13 +11088,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11206,13 +11206,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11280,13 +11280,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11337,13 +11337,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11384,13 +11384,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11444,13 +11444,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11491,13 +11491,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11609,13 +11609,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11683,13 +11683,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11740,13 +11740,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11787,13 +11787,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11847,13 +11847,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11894,13 +11894,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12012,13 +12012,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12086,13 +12086,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12143,13 +12143,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12190,13 +12190,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12250,13 +12250,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12297,13 +12297,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12415,13 +12415,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12489,13 +12489,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12546,13 +12546,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12593,13 +12593,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12653,13 +12653,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12700,13 +12700,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12818,13 +12818,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12892,13 +12892,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12949,13 +12949,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12996,13 +12996,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13056,13 +13056,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13103,13 +13103,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13221,13 +13221,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13295,13 +13295,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13352,13 +13352,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13399,13 +13399,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13459,13 +13459,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13506,13 +13506,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13624,13 +13624,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13698,13 +13698,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13755,13 +13755,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13802,13 +13802,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13862,13 +13862,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13909,13 +13909,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14027,13 +14027,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14101,13 +14101,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14158,13 +14158,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14205,13 +14205,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14265,13 +14265,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14312,13 +14312,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14430,13 +14430,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14504,13 +14504,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14561,13 +14561,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14608,13 +14608,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14668,13 +14668,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14715,13 +14715,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14833,13 +14833,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14907,13 +14907,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14964,13 +14964,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15011,13 +15011,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15071,13 +15071,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15118,13 +15118,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15236,13 +15236,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15310,13 +15310,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15367,13 +15367,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15414,13 +15414,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15474,13 +15474,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15521,13 +15521,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15639,13 +15639,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15713,13 +15713,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15770,13 +15770,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15817,13 +15817,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15877,13 +15877,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15924,13 +15924,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16042,13 +16042,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16116,13 +16116,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16173,13 +16173,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16220,13 +16220,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16280,13 +16280,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16327,13 +16327,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26644</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>108795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>243121</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>152090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16445,13 +16445,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16519,13 +16519,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16576,13 +16576,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16623,13 +16623,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16683,13 +16683,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16730,13 +16730,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16804,13 +16804,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16861,13 +16861,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16908,13 +16908,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16968,13 +16968,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17015,13 +17015,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>75490</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>121007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>671635</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>164303</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17133,13 +17133,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>61057</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>61058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>657202</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>104354</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17251,13 +17251,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>596145</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>43296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17369,13 +17369,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>329711</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>183173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>168740</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>31084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17487,13 +17487,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17561,13 +17561,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17618,13 +17618,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17665,13 +17665,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17725,13 +17725,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17772,13 +17772,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>115407</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219807</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>183172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17846,13 +17846,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>366657</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>72513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>728607</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>175535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17903,13 +17903,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>242233</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>95428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>5550</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>96582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17950,13 +17950,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>282498</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>149381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>740805</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>49248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18010,13 +18010,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>158752</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>4304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>159237</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18057,13 +18057,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>75490</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>121007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>671635</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>164303</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18175,13 +18175,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>61057</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>61058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>657202</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>104354</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18293,13 +18293,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>596145</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>43296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18411,13 +18411,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>329711</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>183173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>168740</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>31084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -18474,6 +18474,820 @@
           <a:r>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
             <a:t>PED SC</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>316221</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116196</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>62921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="321" name="Decisión 320"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343344" y="2301555"/>
+          <a:ext cx="2070318" cy="1675750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>La observacion tiene R_</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464631</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64581</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="331" name="Proceso alternativo 330"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5813285" y="2624398"/>
+          <a:ext cx="364043" cy="281564"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>SI</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>188406</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>283656</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>32238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="346" name="Conector recto de flecha 345"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537060" y="3037218"/>
+          <a:ext cx="859343" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>512614</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="355" name="Decisión 354"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6520961" y="2563788"/>
+          <a:ext cx="1632587" cy="900163"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>la mochila divide ok..?</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>659464</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257321</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="Proceso alternativo 355"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8300398" y="2599666"/>
+          <a:ext cx="361950" cy="291428"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>SI</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>535040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>298357</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="357" name="Conector recto de flecha 356"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8175974" y="2999394"/>
+          <a:ext cx="527410" cy="1154"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>575304</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>269518</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="358" name="Proceso alternativo 357"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7452145" y="3618567"/>
+          <a:ext cx="458307" cy="276680"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>451558</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>452043</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="359" name="Conector recto de flecha 358"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7328399" y="3473490"/>
+          <a:ext cx="485" cy="573128"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368297</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="360" name="Terminador 359"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8773324" y="2459753"/>
+          <a:ext cx="1360239" cy="420109"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>PED mochilaDS</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292806</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124859</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="361" name="Terminador 360"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7169647" y="4034405"/>
+          <a:ext cx="1360239" cy="420110"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>PED mochila ERR</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376813</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208865</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22362</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="362" name="Terminador 361"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8781840" y="2993572"/>
+          <a:ext cx="1360239" cy="420109"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>PED mochilaPPAL</a:t>
           </a:r>
           <a:endParaRPr lang="es-AR" sz="1100" b="0">
             <a:solidFill>
@@ -18793,8 +19607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A271" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A37" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
